--- a/Zeitmitschrift_learnhub.xlsx
+++ b/Zeitmitschrift_learnhub.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learnHub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learnHub\LearnHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{3940A658-70EC-47A0-A6D2-D41113257A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578C352-89A4-41CE-B24D-28FF9640467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -163,13 +163,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,12 +485,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="92" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>

--- a/Zeitmitschrift_learnhub.xlsx
+++ b/Zeitmitschrift_learnhub.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learnHub\LearnHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F578C352-89A4-41CE-B24D-28FF9640467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EC802-B97B-4313-A0EB-00C92DAF39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Datum</t>
   </si>
@@ -53,37 +53,16 @@
     <t>Steinmair</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>20min</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>1,5h</t>
-  </si>
-  <si>
-    <t>45min</t>
-  </si>
-  <si>
-    <t>2,5h</t>
-  </si>
-  <si>
-    <t>3h</t>
-  </si>
-  <si>
-    <t>15min</t>
-  </si>
-  <si>
-    <t>30min</t>
+    <t>Gesamt:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -149,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -163,13 +142,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -486,20 +469,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI5"/>
+  <dimension ref="A1:AL8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N8" sqref="N8"/>
+      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AM10" sqref="AM10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="35" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -605,298 +590,386 @@
       <c r="AI1" s="3">
         <v>45449</v>
       </c>
+      <c r="AJ1" s="3">
+        <v>45455</v>
+      </c>
+      <c r="AK1" s="9">
+        <v>45456</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD2" s="5"/>
-      <c r="AE2" s="5"/>
-      <c r="AF2" s="5"/>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5" t="s">
-        <v>7</v>
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8">
+        <v>1</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8">
+        <v>2</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S2" s="8">
+        <v>1</v>
+      </c>
+      <c r="T2" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="X2" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="8"/>
+      <c r="AF2" s="8"/>
+      <c r="AG2" s="8"/>
+      <c r="AH2" s="8"/>
+      <c r="AI2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL2" s="8">
+        <f>AI2+AC2+AB2+AA2+Z2+X2+W2+T2+S2+R2+M2+K2+G2+E2+C2+B2+AK2</f>
+        <v>23.58</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AI3" s="5" t="s">
-        <v>7</v>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8">
+        <v>1</v>
+      </c>
+      <c r="M3" s="8">
+        <v>2</v>
+      </c>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8">
+        <v>3</v>
+      </c>
+      <c r="U3" s="8">
+        <v>2</v>
+      </c>
+      <c r="V3" s="8">
+        <v>1</v>
+      </c>
+      <c r="W3" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="X3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ3" s="8">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL3" s="8">
+        <f>AJ3+AI3+AH3+AG3+AF3+AE3+AB3+AA3+Z3+Y3+X3+W3+V3+U3+T3+R3+O3+M3+L3+AK3</f>
+        <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AF4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AH4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI4" s="5" t="s">
-        <v>7</v>
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8">
+        <v>2</v>
+      </c>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8">
+        <v>1</v>
+      </c>
+      <c r="L4" s="8">
+        <v>1</v>
+      </c>
+      <c r="M4" s="8">
+        <v>2</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="Q4" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="R4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AD4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="8">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL4" s="8">
+        <f>AI4+AH4+AG4+AF4+AE4+AD4+AC4+AB4+AA4+W4+T4+R4+Q4+P4+M4+L4+K4+F4+D4+B4+AK4</f>
+        <v>26.58</v>
       </c>
     </row>
-    <row r="5" spans="1:35" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC5" s="5"/>
-      <c r="AD5" s="5"/>
-      <c r="AE5" s="5"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="5"/>
-      <c r="AH5" s="5"/>
-      <c r="AI5" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="8">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8">
+        <v>2</v>
+      </c>
+      <c r="I5" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="J5" s="8">
+        <v>1</v>
+      </c>
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8">
+        <v>2</v>
+      </c>
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8">
+        <v>2.5</v>
+      </c>
+      <c r="X5" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="8"/>
+      <c r="AF5" s="8"/>
+      <c r="AG5" s="8"/>
+      <c r="AH5" s="8"/>
+      <c r="AI5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AJ5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL5" s="8">
+        <f>AJ5+AI5+AB5+AA5+Y5+X5+W5+R5+N5+M5+K5+J5+I5+H5+B5+AK5</f>
+        <v>24.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
+      <c r="AG6" s="7"/>
+      <c r="AH6" s="7"/>
+      <c r="AI6" s="7"/>
+      <c r="AJ6" s="7"/>
+      <c r="AK6" s="7"/>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+      <c r="B8" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Zeitmitschrift_learnhub.xlsx
+++ b/Zeitmitschrift_learnhub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learnHub\LearnHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52EC802-B97B-4313-A0EB-00C92DAF39B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857BCA7-2879-43B4-BAF8-4959ABA667B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -149,10 +149,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,22 +469,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL8"/>
+  <dimension ref="A1:AN8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AE1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AM10" sqref="AM10"/>
+      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL29" sqref="AL29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="35" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.109375" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.7109375" customWidth="1"/>
+    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -596,11 +597,17 @@
       <c r="AK1" s="9">
         <v>45456</v>
       </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AL1" s="9">
+        <v>45457</v>
+      </c>
+      <c r="AM1" s="9">
+        <v>45459</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -674,12 +681,14 @@
       <c r="AK2" s="8">
         <v>2</v>
       </c>
-      <c r="AL2" s="8">
+      <c r="AL2" s="8"/>
+      <c r="AM2" s="8"/>
+      <c r="AN2" s="8">
         <f>AI2+AC2+AB2+AA2+Z2+X2+W2+T2+S2+R2+M2+K2+G2+E2+C2+B2+AK2</f>
         <v>23.58</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -760,11 +769,15 @@
         <v>2</v>
       </c>
       <c r="AL3" s="8">
-        <f>AJ3+AI3+AH3+AG3+AF3+AE3+AB3+AA3+Z3+Y3+X3+W3+V3+U3+T3+R3+O3+M3+L3+AK3</f>
-        <v>33</v>
+        <v>0.5</v>
+      </c>
+      <c r="AM3" s="8"/>
+      <c r="AN3" s="8">
+        <f>AJ3+AI3+AH3+AG3+AF3+AE3+AB3+AA3+Z3+Y3+X3+W3+V3+U3+T3+R3+O3+M3+L3+AK3+AL3</f>
+        <v>33.5</v>
       </c>
     </row>
-    <row r="4" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -849,11 +862,17 @@
         <v>2</v>
       </c>
       <c r="AL4" s="8">
-        <f>AI4+AH4+AG4+AF4+AE4+AD4+AC4+AB4+AA4+W4+T4+R4+Q4+P4+M4+L4+K4+F4+D4+B4+AK4</f>
-        <v>26.58</v>
+        <v>0.5</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="AN4" s="8">
+        <f>AI4+AH4+AG4+AF4+AE4+AD4+AC4+AB4+AA4+W4+T4+R4+Q4+P4+M4+L4+K4+F4+D4+B4+AK4+AL4+AM4</f>
+        <v>27.33</v>
       </c>
     </row>
-    <row r="5" spans="1:38" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -926,11 +945,17 @@
         <v>2</v>
       </c>
       <c r="AL5" s="8">
-        <f>AJ5+AI5+AB5+AA5+Y5+X5+W5+R5+N5+M5+K5+J5+I5+H5+B5+AK5</f>
-        <v>24.25</v>
+        <v>0.5</v>
+      </c>
+      <c r="AM5" s="8">
+        <v>2</v>
+      </c>
+      <c r="AN5" s="8">
+        <f>AJ5+AI5+AB5+AA5+Y5+X5+W5+R5+N5+M5+K5+J5+I5+H5+B5+AK5+AL5+AM5</f>
+        <v>26.75</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -967,8 +992,10 @@
       <c r="AI6" s="7"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
       <c r="B8" s="7"/>
     </row>
   </sheetData>

--- a/Zeitmitschrift_learnhub.xlsx
+++ b/Zeitmitschrift_learnhub.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learnHub\LearnHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1857BCA7-2879-43B4-BAF8-4959ABA667B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A6759C-45C8-4F06-9FD0-96A3F7259042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -469,23 +469,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN8"/>
+  <dimension ref="A1:AO8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL29" sqref="AL29"/>
+      <pane xSplit="1" topLeftCell="AD1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="35" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="16.7109375" customWidth="1"/>
-    <col min="37" max="37" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="35" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="16.6640625" customWidth="1"/>
+    <col min="37" max="37" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="14.109375" customWidth="1"/>
+    <col min="41" max="41" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -594,20 +595,23 @@
       <c r="AJ1" s="3">
         <v>45455</v>
       </c>
-      <c r="AK1" s="9">
+      <c r="AK1" s="3">
         <v>45456</v>
       </c>
-      <c r="AL1" s="9">
+      <c r="AL1" s="3">
         <v>45457</v>
       </c>
-      <c r="AM1" s="9">
+      <c r="AM1" s="3">
         <v>45459</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AN1" s="3">
+        <v>45460</v>
+      </c>
+      <c r="AO1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -646,7 +650,7 @@
         <v>1</v>
       </c>
       <c r="T2" s="8">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
@@ -658,7 +662,7 @@
       </c>
       <c r="Y2" s="8"/>
       <c r="Z2" s="8">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AA2" s="8">
         <v>1</v>
@@ -684,11 +688,14 @@
       <c r="AL2" s="8"/>
       <c r="AM2" s="8"/>
       <c r="AN2" s="8">
-        <f>AI2+AC2+AB2+AA2+Z2+X2+W2+T2+S2+R2+M2+K2+G2+E2+C2+B2+AK2</f>
-        <v>23.58</v>
+        <v>1</v>
+      </c>
+      <c r="AO2" s="9">
+        <f>AI2+AC2+AB2+AA2+Z2+X2+W2+T2+S2+R2+M2+K2+G2+E2+C2+B2+AK2+AN2</f>
+        <v>25.33</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -772,12 +779,13 @@
         <v>0.5</v>
       </c>
       <c r="AM3" s="8"/>
-      <c r="AN3" s="8">
+      <c r="AN3" s="8"/>
+      <c r="AO3" s="9">
         <f>AJ3+AI3+AH3+AG3+AF3+AE3+AB3+AA3+Z3+Y3+X3+W3+V3+U3+T3+R3+O3+M3+L3+AK3+AL3</f>
         <v>33.5</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -868,11 +876,14 @@
         <v>0.25</v>
       </c>
       <c r="AN4" s="8">
-        <f>AI4+AH4+AG4+AF4+AE4+AD4+AC4+AB4+AA4+W4+T4+R4+Q4+P4+M4+L4+K4+F4+D4+B4+AK4+AL4+AM4</f>
-        <v>27.33</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO4" s="9">
+        <f>AI4+AH4+AG4+AF4+AE4+AD4+AC4+AB4+AA4+W4+T4+R4+Q4+P4+M4+L4+K4+F4+D4+B4+AK4+AL4+AM4+AN4</f>
+        <v>27.83</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -951,11 +962,14 @@
         <v>2</v>
       </c>
       <c r="AN5" s="8">
-        <f>AJ5+AI5+AB5+AA5+Y5+X5+W5+R5+N5+M5+K5+J5+I5+H5+B5+AK5+AL5+AM5</f>
-        <v>26.75</v>
+        <v>0.5</v>
+      </c>
+      <c r="AO5" s="9">
+        <f>AJ5+AI5+AB5+AA5+Y5+X5+W5+R5+N5+M5+K5+J5+I5+H5+B5+AK5+AL5+AM5+AN5</f>
+        <v>27.25</v>
       </c>
     </row>
-    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -994,8 +1008,9 @@
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
       <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
     </row>
   </sheetData>
